--- a/api명세서.xlsx
+++ b/api명세서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://konkukackr-my.sharepoint.com/personal/rudwhd515_konkuk_ac_kr/Documents/Desktop/KONKUK/UMC/Spring_B/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://konkukackr-my.sharepoint.com/personal/rudwhd515_konkuk_ac_kr/Documents/Desktop/KONKUK/UMC/cloneCoding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{7CF21D3E-6459-4718-B7E1-37E480F873B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BF48B28-2592-4E83-B278-74D1894D5BFF}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{7CF21D3E-6459-4718-B7E1-37E480F873B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{109FF0F9-B602-49A3-8084-2FA6034E0EBF}"/>
   <bookViews>
-    <workbookView xWindow="3468" yWindow="2196" windowWidth="23040" windowHeight="14040" activeTab="3" xr2:uid="{C5E28EE9-F232-4F07-B7EC-FEDC5B48EEB4}"/>
+    <workbookView xWindow="768" yWindow="348" windowWidth="23040" windowHeight="14040" activeTab="4" xr2:uid="{C5E28EE9-F232-4F07-B7EC-FEDC5B48EEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="API-Sheet" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="184">
   <si>
     <t>명세서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2413,6 +2413,10 @@
     }
 }</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;GetPostImgRes&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6955,7 +6959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E491A7-87BC-45F4-AF54-46E292B8E974}">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="C48" sqref="C48:F60"/>
     </sheetView>
   </sheetViews>
@@ -8792,8 +8796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42AD734-EFBA-4FDA-8DC4-1E4B809DBA1C}">
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -8801,7 +8805,7 @@
     <col min="1" max="1" width="19.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="22.09765625" style="10" customWidth="1"/>
     <col min="3" max="3" width="15.19921875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.796875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.8984375" style="10" customWidth="1"/>
     <col min="5" max="5" width="8.796875" style="10"/>
     <col min="6" max="6" width="20.09765625" style="10" customWidth="1"/>
     <col min="7" max="7" width="6.5" style="10" bestFit="1" customWidth="1"/>
@@ -9508,7 +9512,7 @@
         <v>151</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>47</v>

--- a/api명세서.xlsx
+++ b/api명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://konkukackr-my.sharepoint.com/personal/rudwhd515_konkuk_ac_kr/Documents/Desktop/KONKUK/UMC/cloneCoding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{7CF21D3E-6459-4718-B7E1-37E480F873B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{109FF0F9-B602-49A3-8084-2FA6034E0EBF}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="13_ncr:1_{7CF21D3E-6459-4718-B7E1-37E480F873B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4B31A0D-D146-42ED-9DE3-048EC6EA2294}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="348" windowWidth="23040" windowHeight="14040" activeTab="4" xr2:uid="{C5E28EE9-F232-4F07-B7EC-FEDC5B48EEB4}"/>
+    <workbookView xWindow="768" yWindow="348" windowWidth="23040" windowHeight="14040" xr2:uid="{C5E28EE9-F232-4F07-B7EC-FEDC5B48EEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="API-Sheet" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="211">
   <si>
     <t>명세서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,14 +221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/users/:userIdx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PATCH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,10 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/users/:userIdx/status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Resourse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,10 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>posts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게시물 리스트 조회 api</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,14 +254,6 @@
   </si>
   <si>
     <t>게시물 삭제 api</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/posts/:postIdx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comments</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -754,10 +730,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/users/:userIdx/posts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -777,10 +749,6 @@
       </rPr>
       <t xml:space="preserve"> api</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/users/:userIdx/info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1287,10 +1255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/posts?userIdx=:userIdx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/followers?userIdx=:userIdx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1300,14 +1264,6 @@
   </si>
   <si>
     <t>/comments?postIdx=:postIdx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/comments/:commentIdx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/posts/:postIdx/status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2007,10 +1963,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>follows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4.1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2035,14 +1987,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/follows/followers?userIdx=:userIdx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/follows/followees?userIdx=:userIdx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대댓글 조회 api</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2056,48 +2000,12 @@
   </si>
   <si>
     <t>댓글 조회 api</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/comments?pcommentIdx=:pcommentIdx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>select userIdx,name,nickName,email 
 from user 
 where userIdx=? and status = 'ACTIVE';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ㄴbirth</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ㄴgender</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2322,6 +2230,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>List&lt;GetPostImgRes&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post?userIdx=:userIdx</t>
+  </si>
+  <si>
+    <t>/post?userIdx=:userIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/:userIdx/info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/:userIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/:userIdx/post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/:userIdx/status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>/post/:postIdx</t>
+  </si>
+  <si>
+    <t>/post/:postIdx/status</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>/comment?postIdx=:postIdx</t>
+  </si>
+  <si>
+    <t>/comment/:commentIdx</t>
+  </si>
+  <si>
+    <t>/comment?pcommentIdx=:pcommentIdx</t>
+  </si>
+  <si>
+    <t>follow</t>
+  </si>
+  <si>
+    <t>/follow/followee?userIdx=:userIdx</t>
+  </si>
+  <si>
+    <t>/follow/follower?userIdx=:userIdx</t>
+  </si>
+  <si>
+    <t>/users/:userIdx/post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>female</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rudwhd3@gmail.com</t>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>{
     "isSuccess": true,
@@ -2332,7 +2324,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="굴림"/>
+        <rFont val="Arial Unicode MS"/>
         <family val="2"/>
         <charset val="129"/>
       </rPr>
@@ -2351,7 +2343,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="굴림"/>
+        <rFont val="Arial Unicode MS"/>
         <family val="2"/>
         <charset val="129"/>
       </rPr>
@@ -2375,7 +2367,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="굴림"/>
+        <rFont val="Arial Unicode MS"/>
         <family val="2"/>
         <charset val="129"/>
       </rPr>
@@ -2416,7 +2408,239 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>List&lt;GetPostImgRes&gt;</t>
+    <t>유경종1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jongky1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>male</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rudwhd1@gmail.com</t>
+  </si>
+  <si>
+    <t>postImg1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">유저의 게시글 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>idx</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">게시글 이미지 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>url</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일 전</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번 게시물</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postimg1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>닉네임</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의게시글 idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 본문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게시글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좋아요 수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 댓글 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 수정까지의 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요 누름 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 이미지 idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게시글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> url</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2424,7 +2648,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2512,6 +2736,13 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2568,7 +2799,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2643,6 +2874,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2961,8 +3201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8C89E4-EDA5-4558-AF7C-7B5599C3777D}">
   <dimension ref="A3:I181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2978,7 +3218,7 @@
   <sheetData>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -3007,19 +3247,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3027,13 +3267,13 @@
         <v>1.2</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3041,10 +3281,10 @@
         <v>1.3</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
@@ -3055,10 +3295,10 @@
         <v>1.4</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
@@ -3069,10 +3309,10 @@
         <v>1.5</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
@@ -3083,10 +3323,10 @@
         <v>1.6</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
@@ -3097,19 +3337,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="B11" s="1">
         <v>2.1</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3117,13 +3357,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3131,13 +3371,13 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3145,13 +3385,13 @@
         <v>2.4</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3159,13 +3399,13 @@
         <v>2.5</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3173,19 +3413,19 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="B17" s="1">
         <v>3.1</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3193,13 +3433,13 @@
         <v>3.2</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3207,13 +3447,13 @@
         <v>3.3</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3221,13 +3461,13 @@
         <v>3.4</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3235,13 +3475,13 @@
         <v>3.5</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3249,13 +3489,13 @@
         <v>3.6</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3263,13 +3503,13 @@
         <v>3.7</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3277,58 +3517,58 @@
         <v>3.8</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="B27" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3336,44 +3576,44 @@
     </row>
     <row r="30" spans="1:5">
       <c r="B30" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="B32" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="4:4">
@@ -3816,8 +4056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A49E2F-7B45-4A92-94E9-BB850CA117A8}">
   <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:F47"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3835,13 +4075,13 @@
   <sheetData>
     <row r="1" spans="1:16" ht="16.2" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -3859,7 +4099,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="9" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -3880,10 +4120,10 @@
     <row r="3" spans="1:16">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3920,7 +4160,7 @@
     <row r="5" spans="1:16">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -3941,22 +4181,22 @@
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -3988,7 +4228,7 @@
     <row r="8" spans="1:16">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -4009,22 +4249,22 @@
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -4092,7 +4332,7 @@
     <row r="13" spans="1:16">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -4113,22 +4353,22 @@
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
@@ -4154,7 +4394,7 @@
     <row r="16" spans="1:16">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -4169,22 +4409,22 @@
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -4199,20 +4439,20 @@
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F18" s="13">
         <v>3</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="12" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -4244,7 +4484,7 @@
     <row r="20" spans="1:16">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -4265,22 +4505,22 @@
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -4295,13 +4535,13 @@
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -4319,20 +4559,20 @@
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="16" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F23" s="13">
         <v>3</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="16" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -4347,20 +4587,20 @@
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="16" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -4375,20 +4615,20 @@
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="16" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="20" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -4403,20 +4643,20 @@
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="21" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -4431,20 +4671,20 @@
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F27" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -4459,20 +4699,20 @@
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F28" s="13">
         <v>1000</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -4487,20 +4727,20 @@
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -4586,7 +4826,7 @@
     <row r="34" spans="1:16">
       <c r="A34" s="9"/>
       <c r="B34" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -4595,7 +4835,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
@@ -4608,7 +4848,7 @@
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="23" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
@@ -4617,7 +4857,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="24" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="K35" s="24"/>
       <c r="L35" s="24"/>
@@ -4863,7 +5103,7 @@
     <row r="49" spans="1:16">
       <c r="A49" s="9"/>
       <c r="B49" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -4884,10 +5124,10 @@
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="11"/>
@@ -4909,7 +5149,7 @@
         <v>200</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="11"/>
@@ -4931,7 +5171,7 @@
         <v>1000</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="11"/>
@@ -4953,7 +5193,7 @@
         <v>2015</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="11"/>
@@ -4975,7 +5215,7 @@
         <v>2016</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="11"/>
@@ -4997,7 +5237,7 @@
         <v>2017</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="11"/>
@@ -5019,7 +5259,7 @@
         <v>2018</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="11"/>
@@ -5041,7 +5281,7 @@
         <v>2019</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="11"/>
@@ -5063,7 +5303,7 @@
         <v>2020</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="11"/>
@@ -5085,7 +5325,7 @@
         <v>2021</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="11"/>
@@ -5107,7 +5347,7 @@
         <v>2022</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="11"/>
@@ -5129,7 +5369,7 @@
         <v>2023</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="11"/>
@@ -5151,7 +5391,7 @@
         <v>2024</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="11"/>
@@ -5173,7 +5413,7 @@
         <v>2025</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="11"/>
@@ -5195,7 +5435,7 @@
         <v>2026</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="11"/>
@@ -5217,7 +5457,7 @@
         <v>4000</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="11"/>
@@ -5286,8 +5526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4939B2DE-FD55-4D7F-9471-BF1A0F8F4EC1}">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H24:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -5305,13 +5545,13 @@
   <sheetData>
     <row r="1" spans="1:16" ht="16.2" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -5329,7 +5569,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="9" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -5350,10 +5590,10 @@
     <row r="3" spans="1:16">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -5390,7 +5630,7 @@
     <row r="5" spans="1:16">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -5411,22 +5651,22 @@
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -5458,7 +5698,7 @@
     <row r="8" spans="1:16">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -5479,22 +5719,22 @@
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -5562,7 +5802,7 @@
     <row r="13" spans="1:16">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -5583,22 +5823,22 @@
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
@@ -5624,7 +5864,7 @@
     <row r="16" spans="1:16">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -5639,22 +5879,22 @@
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -5669,20 +5909,20 @@
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F18" s="13">
         <v>3</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="12" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -5714,7 +5954,7 @@
     <row r="20" spans="1:16">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -5735,22 +5975,22 @@
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -5765,13 +6005,13 @@
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -5789,20 +6029,20 @@
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F23" s="13">
         <v>1</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -5817,18 +6057,20 @@
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>104</v>
+      </c>
       <c r="G24" s="9"/>
       <c r="H24" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -5843,18 +6085,20 @@
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="G25" s="9"/>
       <c r="H25" s="21" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -5869,18 +6113,20 @@
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F26" s="25">
+        <v>38910</v>
+      </c>
       <c r="G26" s="9"/>
       <c r="H26" s="21" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -5895,18 +6141,20 @@
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>184</v>
+      </c>
       <c r="G27" s="9"/>
       <c r="H27" s="21" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -5921,18 +6169,20 @@
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>185</v>
+      </c>
       <c r="G28" s="9"/>
       <c r="H28" s="20" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -5947,18 +6197,20 @@
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>186</v>
+      </c>
       <c r="G29" s="9"/>
       <c r="H29" s="21" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -5973,18 +6225,20 @@
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>185</v>
+      </c>
       <c r="G30" s="9"/>
       <c r="H30" s="20" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -5999,18 +6253,20 @@
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>187</v>
+      </c>
       <c r="G31" s="9"/>
       <c r="H31" s="20" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -6025,18 +6281,20 @@
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F32" s="13">
+        <v>3</v>
+      </c>
       <c r="G32" s="9"/>
       <c r="H32" s="21" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -6051,18 +6309,20 @@
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F33" s="13">
+        <v>3</v>
+      </c>
       <c r="G33" s="9"/>
       <c r="H33" s="21" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -6077,18 +6337,20 @@
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F34" s="13">
+        <v>1</v>
+      </c>
       <c r="G34" s="9"/>
       <c r="H34" s="21" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -6103,20 +6365,20 @@
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F35" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -6131,20 +6393,20 @@
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F36" s="13">
         <v>1000</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -6159,20 +6421,20 @@
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -6258,7 +6520,7 @@
     <row r="42" spans="1:16">
       <c r="A42" s="9"/>
       <c r="B42" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -6267,7 +6529,7 @@
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
@@ -6281,7 +6543,7 @@
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="23" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
@@ -6290,7 +6552,7 @@
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="24" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="K43" s="24"/>
       <c r="L43" s="24"/>
@@ -6592,7 +6854,7 @@
     <row r="61" spans="1:16">
       <c r="A61" s="9"/>
       <c r="B61" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -6613,10 +6875,10 @@
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="11"/>
@@ -6638,7 +6900,7 @@
         <v>200</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="11"/>
@@ -6660,7 +6922,7 @@
         <v>1000</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="11"/>
@@ -6682,7 +6944,7 @@
         <v>2015</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="11"/>
@@ -6704,7 +6966,7 @@
         <v>2016</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="11"/>
@@ -6726,7 +6988,7 @@
         <v>2017</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="11"/>
@@ -6748,7 +7010,7 @@
         <v>2018</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="11"/>
@@ -6770,7 +7032,7 @@
         <v>2019</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="11"/>
@@ -6792,7 +7054,7 @@
         <v>2020</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="11"/>
@@ -6814,7 +7076,7 @@
         <v>2021</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="11"/>
@@ -6836,7 +7098,7 @@
         <v>2022</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="11"/>
@@ -6858,7 +7120,7 @@
         <v>2023</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="11"/>
@@ -6880,7 +7142,7 @@
         <v>2024</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="11"/>
@@ -6902,7 +7164,7 @@
         <v>2025</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="11"/>
@@ -6924,7 +7186,7 @@
         <v>2026</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="11"/>
@@ -6936,7 +7198,7 @@
         <v>4000</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="11"/>
@@ -6959,7 +7221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E491A7-87BC-45F4-AF54-46E292B8E974}">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C48" sqref="C48:F60"/>
     </sheetView>
   </sheetViews>
@@ -6972,19 +7234,19 @@
     <col min="5" max="5" width="8.796875" style="10"/>
     <col min="6" max="6" width="20.09765625" style="10" customWidth="1"/>
     <col min="7" max="7" width="6.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="21.8984375" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.796875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.2" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -7002,7 +7264,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="9" t="s">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -7023,10 +7285,10 @@
     <row r="3" spans="1:16">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -7063,7 +7325,7 @@
     <row r="5" spans="1:16">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -7084,22 +7346,22 @@
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -7131,7 +7393,7 @@
     <row r="8" spans="1:16">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -7152,22 +7414,22 @@
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -7235,7 +7497,7 @@
     <row r="13" spans="1:16">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -7256,22 +7518,22 @@
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
@@ -7285,6 +7547,22 @@
     <row r="15" spans="1:16">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
       <c r="K15" s="9"/>
@@ -7297,7 +7575,7 @@
     <row r="16" spans="1:16">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -7312,22 +7590,22 @@
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -7341,22 +7619,6 @@
     <row r="18" spans="1:16">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="13">
-        <v>3</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="12" t="s">
-        <v>99</v>
-      </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -7387,7 +7649,7 @@
     <row r="20" spans="1:16">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -7408,22 +7670,22 @@
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -7438,13 +7700,13 @@
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -7462,13 +7724,17 @@
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>188</v>
+      </c>
       <c r="E23" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="F23" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -7484,13 +7750,13 @@
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -7508,20 +7774,20 @@
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F25" s="13">
         <v>1</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -7536,17 +7802,21 @@
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>190</v>
+      </c>
       <c r="G26" s="9"/>
-      <c r="H26" s="16"/>
+      <c r="H26" s="20" t="s">
+        <v>108</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -7560,17 +7830,21 @@
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="G27" s="9"/>
-      <c r="H27" s="16"/>
+      <c r="H27" s="21" t="s">
+        <v>109</v>
+      </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -7584,17 +7858,21 @@
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F28" s="25">
+        <v>37721</v>
+      </c>
       <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="H28" s="21" t="s">
+        <v>155</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -7608,17 +7886,21 @@
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>192</v>
+      </c>
       <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="H29" s="21" t="s">
+        <v>156</v>
+      </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -7632,17 +7914,21 @@
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>185</v>
+      </c>
       <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="H30" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
@@ -7656,17 +7942,21 @@
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>193</v>
+      </c>
       <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="H31" s="21" t="s">
+        <v>111</v>
+      </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -7680,17 +7970,21 @@
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>185</v>
+      </c>
       <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="H32" s="20" t="s">
+        <v>113</v>
+      </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -7704,17 +7998,21 @@
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>194</v>
+      </c>
       <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+      <c r="H33" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -7728,17 +8026,21 @@
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F34" s="13">
+        <v>1</v>
+      </c>
       <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+      <c r="H34" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -7752,17 +8054,21 @@
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F35" s="13">
+        <v>4</v>
+      </c>
       <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="H35" s="21" t="s">
+        <v>115</v>
+      </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -7776,17 +8082,21 @@
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F36" s="13">
+        <v>2</v>
+      </c>
       <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+      <c r="H36" s="21" t="s">
+        <v>116</v>
+      </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -7800,13 +8110,13 @@
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="16" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="9"/>
@@ -7824,17 +8134,21 @@
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F38" s="13">
+        <v>1</v>
+      </c>
       <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
+      <c r="H38" s="16" t="s">
+        <v>196</v>
+      </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -7848,17 +8162,21 @@
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>195</v>
+      </c>
       <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
+      <c r="H39" s="16" t="s">
+        <v>197</v>
+      </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -7872,20 +8190,20 @@
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F40" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -7900,20 +8218,20 @@
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F41" s="13">
         <v>1000</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -7928,20 +8246,20 @@
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -8027,7 +8345,7 @@
     <row r="47" spans="1:19">
       <c r="A47" s="9"/>
       <c r="B47" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -8036,7 +8354,7 @@
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -8050,7 +8368,7 @@
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="23" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
@@ -8059,7 +8377,7 @@
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="24" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
@@ -8459,7 +8777,7 @@
     <row r="69" spans="1:19">
       <c r="A69" s="9"/>
       <c r="B69" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -8483,10 +8801,10 @@
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="11"/>
@@ -8511,7 +8829,7 @@
         <v>200</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="11"/>
@@ -8533,7 +8851,7 @@
         <v>1000</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="11"/>
@@ -8555,7 +8873,7 @@
         <v>2015</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="11"/>
@@ -8577,7 +8895,7 @@
         <v>2016</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="11"/>
@@ -8599,7 +8917,7 @@
         <v>2017</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="11"/>
@@ -8621,7 +8939,7 @@
         <v>2018</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="11"/>
@@ -8643,7 +8961,7 @@
         <v>2019</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="11"/>
@@ -8665,7 +8983,7 @@
         <v>2020</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="11"/>
@@ -8687,7 +9005,7 @@
         <v>2021</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="11"/>
@@ -8709,7 +9027,7 @@
         <v>2022</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="11"/>
@@ -8730,7 +9048,7 @@
         <v>2023</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="11"/>
@@ -8741,7 +9059,7 @@
         <v>2024</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="11"/>
@@ -8752,7 +9070,7 @@
         <v>2025</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="11"/>
@@ -8763,7 +9081,7 @@
         <v>2026</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="11"/>
@@ -8774,7 +9092,7 @@
         <v>4000</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="11"/>
@@ -8796,8 +9114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42AD734-EFBA-4FDA-8DC4-1E4B809DBA1C}">
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -8809,19 +9127,19 @@
     <col min="5" max="5" width="8.796875" style="10"/>
     <col min="6" max="6" width="20.09765625" style="10" customWidth="1"/>
     <col min="7" max="7" width="6.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="21" style="10" customWidth="1"/>
     <col min="9" max="16384" width="8.796875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.2" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -8839,7 +9157,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="9" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -8860,10 +9178,10 @@
     <row r="3" spans="1:16">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -8900,7 +9218,7 @@
     <row r="5" spans="1:16">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -8921,22 +9239,22 @@
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -8968,7 +9286,7 @@
     <row r="8" spans="1:16">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -8989,22 +9307,22 @@
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -9072,7 +9390,7 @@
     <row r="13" spans="1:16">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -9093,22 +9411,22 @@
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
@@ -9123,20 +9441,20 @@
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F15" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="12" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
@@ -9150,7 +9468,7 @@
     <row r="16" spans="1:16">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -9165,22 +9483,22 @@
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -9224,7 +9542,7 @@
     <row r="20" spans="1:16">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -9245,22 +9563,22 @@
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -9275,13 +9593,13 @@
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -9298,17 +9616,21 @@
     <row r="23" spans="1:16">
       <c r="A23" s="9"/>
       <c r="C23" s="16" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
       <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="H23" s="27" t="s">
+        <v>203</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -9321,17 +9643,21 @@
     <row r="24" spans="1:16">
       <c r="A24" s="9"/>
       <c r="C24" s="16" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1</v>
+      </c>
       <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="H24" s="16" t="s">
+        <v>85</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -9344,20 +9670,20 @@
     <row r="25" spans="1:16">
       <c r="A25" s="9"/>
       <c r="C25" s="16" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="13">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>191</v>
       </c>
       <c r="G25" s="9"/>
-      <c r="H25" s="16" t="s">
-        <v>91</v>
+      <c r="H25" s="26" t="s">
+        <v>202</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -9371,17 +9697,21 @@
     <row r="26" spans="1:16">
       <c r="A26" s="9"/>
       <c r="C26" s="16" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>193</v>
+      </c>
       <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="H26" s="27" t="s">
+        <v>111</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -9394,17 +9724,21 @@
     <row r="27" spans="1:16">
       <c r="A27" s="9"/>
       <c r="C27" s="16" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>200</v>
+      </c>
       <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="H27" s="27" t="s">
+        <v>204</v>
+      </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -9417,17 +9751,21 @@
     <row r="28" spans="1:16">
       <c r="A28" s="9"/>
       <c r="C28" s="16" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F28" s="13">
+        <v>12</v>
+      </c>
       <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="H28" s="16" t="s">
+        <v>205</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -9440,17 +9778,21 @@
     <row r="29" spans="1:16">
       <c r="A29" s="9"/>
       <c r="C29" s="16" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0</v>
+      </c>
       <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="H29" s="20" t="s">
+        <v>206</v>
+      </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -9463,17 +9805,21 @@
     <row r="30" spans="1:16">
       <c r="A30" s="9"/>
       <c r="C30" s="16" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>198</v>
+      </c>
       <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="H30" s="20" t="s">
+        <v>207</v>
+      </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
@@ -9486,17 +9832,21 @@
     <row r="31" spans="1:16">
       <c r="A31" s="9"/>
       <c r="C31" s="16" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>199</v>
+      </c>
       <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="H31" s="20" t="s">
+        <v>208</v>
+      </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -9509,13 +9859,13 @@
     <row r="32" spans="1:16">
       <c r="A32" s="9"/>
       <c r="C32" s="16" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="9"/>
@@ -9532,17 +9882,21 @@
     <row r="33" spans="1:19">
       <c r="A33" s="9"/>
       <c r="C33" s="9" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F33" s="13">
+        <v>1</v>
+      </c>
       <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+      <c r="H33" s="21" t="s">
+        <v>209</v>
+      </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -9555,17 +9909,21 @@
     <row r="34" spans="1:19">
       <c r="A34" s="9"/>
       <c r="C34" s="9" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>201</v>
+      </c>
       <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+      <c r="H34" s="16" t="s">
+        <v>210</v>
+      </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -9579,20 +9937,20 @@
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F35" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -9607,20 +9965,20 @@
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F36" s="13">
         <v>1000</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -9635,20 +9993,20 @@
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -9734,7 +10092,7 @@
     <row r="42" spans="1:19">
       <c r="A42" s="9"/>
       <c r="B42" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -9743,7 +10101,7 @@
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
@@ -9757,7 +10115,7 @@
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="24" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
@@ -9766,7 +10124,7 @@
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="24" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="K43" s="24"/>
       <c r="L43" s="24"/>
@@ -10182,7 +10540,7 @@
     <row r="64" spans="1:19">
       <c r="A64" s="9"/>
       <c r="B64" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -10206,10 +10564,10 @@
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="11"/>
@@ -10234,7 +10592,7 @@
         <v>200</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="11"/>
@@ -10259,7 +10617,7 @@
         <v>1000</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="11"/>
@@ -10284,7 +10642,7 @@
         <v>2015</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="11"/>
@@ -10309,7 +10667,7 @@
         <v>2016</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="11"/>
@@ -10334,7 +10692,7 @@
         <v>2017</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="11"/>
@@ -10356,7 +10714,7 @@
         <v>2018</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="11"/>
@@ -10378,7 +10736,7 @@
         <v>2019</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="11"/>
@@ -10400,7 +10758,7 @@
         <v>2020</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="11"/>
@@ -10422,7 +10780,7 @@
         <v>2021</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="11"/>
@@ -10444,7 +10802,7 @@
         <v>2022</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="11"/>
@@ -10465,7 +10823,7 @@
         <v>2023</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="11"/>
@@ -10476,7 +10834,7 @@
         <v>2024</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="11"/>
@@ -10487,7 +10845,7 @@
         <v>2025</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="11"/>
@@ -10498,7 +10856,7 @@
         <v>2026</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="11"/>
@@ -10509,7 +10867,7 @@
         <v>4000</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="11"/>
@@ -10550,13 +10908,13 @@
   <sheetData>
     <row r="1" spans="1:16" ht="16.2" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -10574,7 +10932,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -10595,10 +10953,10 @@
     <row r="3" spans="1:16">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -10635,7 +10993,7 @@
     <row r="5" spans="1:16">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -10656,22 +11014,22 @@
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -10703,7 +11061,7 @@
     <row r="8" spans="1:16">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -10724,22 +11082,22 @@
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -10807,7 +11165,7 @@
     <row r="13" spans="1:16">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -10828,22 +11186,22 @@
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
@@ -10858,20 +11216,20 @@
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F15" s="13">
         <v>3</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="22" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
@@ -10885,7 +11243,7 @@
     <row r="16" spans="1:16">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -10900,22 +11258,22 @@
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -10959,7 +11317,7 @@
     <row r="20" spans="1:16">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -10980,22 +11338,22 @@
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -11010,13 +11368,13 @@
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -11034,11 +11392,11 @@
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="16" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -11056,13 +11414,13 @@
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -11080,20 +11438,20 @@
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F25" s="13">
         <v>1</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -11108,13 +11466,13 @@
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="9"/>
@@ -11132,13 +11490,13 @@
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="9"/>
@@ -11156,13 +11514,13 @@
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="9"/>
@@ -11180,13 +11538,13 @@
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="9"/>
@@ -11204,13 +11562,13 @@
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="9"/>
@@ -11228,13 +11586,13 @@
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="9"/>
@@ -11252,13 +11610,13 @@
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="9"/>
@@ -11276,13 +11634,13 @@
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="9"/>
@@ -11300,13 +11658,13 @@
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="16" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="9"/>
@@ -11324,13 +11682,13 @@
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="9"/>
@@ -11348,13 +11706,13 @@
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="9"/>
@@ -11372,20 +11730,20 @@
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F37" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -11400,20 +11758,20 @@
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F38" s="13">
         <v>1000</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -11428,20 +11786,20 @@
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -11527,7 +11885,7 @@
     <row r="44" spans="1:19">
       <c r="A44" s="9"/>
       <c r="B44" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -11536,7 +11894,7 @@
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -11550,7 +11908,7 @@
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="23" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -11559,7 +11917,7 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="24" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
@@ -11959,7 +12317,7 @@
     <row r="66" spans="1:19">
       <c r="A66" s="9"/>
       <c r="B66" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -11983,10 +12341,10 @@
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="11"/>
@@ -12011,7 +12369,7 @@
         <v>200</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="11"/>
@@ -12033,7 +12391,7 @@
         <v>1000</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="11"/>
@@ -12055,7 +12413,7 @@
         <v>2015</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="11"/>
@@ -12077,7 +12435,7 @@
         <v>2016</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="11"/>
@@ -12099,7 +12457,7 @@
         <v>2017</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="11"/>
@@ -12121,7 +12479,7 @@
         <v>2018</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="11"/>
@@ -12143,7 +12501,7 @@
         <v>2019</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="11"/>
@@ -12165,7 +12523,7 @@
         <v>2020</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="11"/>
@@ -12187,7 +12545,7 @@
         <v>2021</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="11"/>
@@ -12209,7 +12567,7 @@
         <v>2022</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="11"/>
@@ -12230,7 +12588,7 @@
         <v>2023</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="11"/>
@@ -12241,7 +12599,7 @@
         <v>2024</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="11"/>
@@ -12252,7 +12610,7 @@
         <v>2025</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="11"/>
@@ -12263,7 +12621,7 @@
         <v>2026</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="11"/>
@@ -12274,7 +12632,7 @@
         <v>4000</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="11"/>
@@ -12315,13 +12673,13 @@
   <sheetData>
     <row r="1" spans="1:16" ht="16.2" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -12339,7 +12697,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -12360,10 +12718,10 @@
     <row r="3" spans="1:16">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -12400,7 +12758,7 @@
     <row r="5" spans="1:16">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -12421,22 +12779,22 @@
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -12468,7 +12826,7 @@
     <row r="8" spans="1:16">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -12489,22 +12847,22 @@
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -12572,7 +12930,7 @@
     <row r="13" spans="1:16">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -12593,22 +12951,22 @@
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
@@ -12623,20 +12981,20 @@
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F15" s="13">
         <v>3</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="12" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
@@ -12650,7 +13008,7 @@
     <row r="16" spans="1:16">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -12665,22 +13023,22 @@
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -12723,7 +13081,7 @@
     <row r="20" spans="1:16">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -12744,22 +13102,22 @@
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -12774,13 +13132,13 @@
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -12798,11 +13156,11 @@
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="16" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -12820,13 +13178,13 @@
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -12844,20 +13202,20 @@
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F25" s="13">
         <v>1</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -12872,13 +13230,13 @@
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="9"/>
@@ -12896,13 +13254,13 @@
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="9"/>
@@ -12920,13 +13278,13 @@
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="9"/>
@@ -12944,13 +13302,13 @@
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="9"/>
@@ -12968,13 +13326,13 @@
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="9"/>
@@ -12992,13 +13350,13 @@
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="9"/>
@@ -13016,13 +13374,13 @@
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="9"/>
@@ -13040,13 +13398,13 @@
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="9"/>
@@ -13064,13 +13422,13 @@
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="16" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="9"/>
@@ -13088,13 +13446,13 @@
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="9"/>
@@ -13112,13 +13470,13 @@
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="9"/>
@@ -13136,20 +13494,20 @@
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F37" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -13164,20 +13522,20 @@
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F38" s="13">
         <v>1000</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -13192,20 +13550,20 @@
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -13291,7 +13649,7 @@
     <row r="44" spans="1:19">
       <c r="A44" s="9"/>
       <c r="B44" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -13300,7 +13658,7 @@
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -13314,7 +13672,7 @@
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="23" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -13323,7 +13681,7 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="24" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
@@ -13723,7 +14081,7 @@
     <row r="66" spans="1:19">
       <c r="A66" s="9"/>
       <c r="B66" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -13747,10 +14105,10 @@
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="11"/>
@@ -13775,7 +14133,7 @@
         <v>200</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="11"/>
@@ -13797,7 +14155,7 @@
         <v>1000</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="11"/>
@@ -13819,7 +14177,7 @@
         <v>2015</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="11"/>
@@ -13841,7 +14199,7 @@
         <v>2016</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="11"/>
@@ -13863,7 +14221,7 @@
         <v>2017</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="11"/>
@@ -13885,7 +14243,7 @@
         <v>2018</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="11"/>
@@ -13907,7 +14265,7 @@
         <v>2019</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="11"/>
@@ -13929,7 +14287,7 @@
         <v>2020</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="11"/>
@@ -13951,7 +14309,7 @@
         <v>2021</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="11"/>
@@ -13973,7 +14331,7 @@
         <v>2022</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="11"/>
@@ -13994,7 +14352,7 @@
         <v>2023</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="11"/>
@@ -14005,7 +14363,7 @@
         <v>2024</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="11"/>
@@ -14016,7 +14374,7 @@
         <v>2025</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="11"/>
@@ -14027,7 +14385,7 @@
         <v>2026</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="11"/>
@@ -14038,7 +14396,7 @@
         <v>4000</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="11"/>
@@ -14061,7 +14419,7 @@
   <dimension ref="A1:S82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -14079,13 +14437,13 @@
   <sheetData>
     <row r="1" spans="1:16" ht="16.2" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -14103,7 +14461,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -14124,10 +14482,10 @@
     <row r="3" spans="1:16">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -14164,7 +14522,7 @@
     <row r="5" spans="1:16">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -14185,22 +14543,22 @@
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -14232,7 +14590,7 @@
     <row r="8" spans="1:16">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -14253,22 +14611,22 @@
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -14336,7 +14694,7 @@
     <row r="13" spans="1:16">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -14357,22 +14715,22 @@
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
@@ -14387,20 +14745,20 @@
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F15" s="13">
         <v>3</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="12" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
@@ -14414,7 +14772,7 @@
     <row r="16" spans="1:16">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -14429,22 +14787,22 @@
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -14488,7 +14846,7 @@
     <row r="20" spans="1:16">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -14509,22 +14867,22 @@
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -14539,13 +14897,13 @@
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -14563,11 +14921,11 @@
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="16" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -14585,13 +14943,13 @@
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -14609,20 +14967,20 @@
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F25" s="13">
         <v>1</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -14637,13 +14995,13 @@
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="9"/>
@@ -14661,13 +15019,13 @@
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="9"/>
@@ -14685,13 +15043,13 @@
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="9"/>
@@ -14709,13 +15067,13 @@
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="9"/>
@@ -14733,13 +15091,13 @@
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="9"/>
@@ -14757,13 +15115,13 @@
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="9"/>
@@ -14781,13 +15139,13 @@
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="9"/>
@@ -14805,13 +15163,13 @@
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="9"/>
@@ -14829,13 +15187,13 @@
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="16" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="9"/>
@@ -14853,13 +15211,13 @@
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="9"/>
@@ -14877,13 +15235,13 @@
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="9"/>
@@ -14901,20 +15259,20 @@
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F37" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -14929,20 +15287,20 @@
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F38" s="13">
         <v>1000</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -14957,20 +15315,20 @@
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -15056,7 +15414,7 @@
     <row r="44" spans="1:19">
       <c r="A44" s="9"/>
       <c r="B44" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -15065,7 +15423,7 @@
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -15079,7 +15437,7 @@
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="23" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -15088,7 +15446,7 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="24" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
@@ -15488,7 +15846,7 @@
     <row r="66" spans="1:19">
       <c r="A66" s="9"/>
       <c r="B66" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -15512,10 +15870,10 @@
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="11"/>
@@ -15540,7 +15898,7 @@
         <v>200</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="11"/>
@@ -15562,7 +15920,7 @@
         <v>1000</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="11"/>
@@ -15584,7 +15942,7 @@
         <v>2015</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="11"/>
@@ -15606,7 +15964,7 @@
         <v>2016</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="11"/>
@@ -15628,7 +15986,7 @@
         <v>2017</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="11"/>
@@ -15650,7 +16008,7 @@
         <v>2018</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="11"/>
@@ -15672,7 +16030,7 @@
         <v>2019</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="11"/>
@@ -15694,7 +16052,7 @@
         <v>2020</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="11"/>
@@ -15716,7 +16074,7 @@
         <v>2021</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="11"/>
@@ -15738,7 +16096,7 @@
         <v>2022</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="11"/>
@@ -15759,7 +16117,7 @@
         <v>2023</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="11"/>
@@ -15770,7 +16128,7 @@
         <v>2024</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="11"/>
@@ -15781,7 +16139,7 @@
         <v>2025</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="11"/>
@@ -15792,7 +16150,7 @@
         <v>2026</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="11"/>
@@ -15803,7 +16161,7 @@
         <v>4000</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="11"/>

--- a/api명세서.xlsx
+++ b/api명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://konkukackr-my.sharepoint.com/personal/rudwhd515_konkuk_ac_kr/Documents/Desktop/KONKUK/UMC/cloneCoding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="378" documentId="13_ncr:1_{7CF21D3E-6459-4718-B7E1-37E480F873B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1BB5E14-D588-4C1C-8E05-1E970B67E614}"/>
+  <xr:revisionPtr revIDLastSave="379" documentId="13_ncr:1_{7CF21D3E-6459-4718-B7E1-37E480F873B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7200E71B-6394-41D3-B36B-41330B231F29}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="19416" firstSheet="7" activeTab="11" xr2:uid="{C5E28EE9-F232-4F07-B7EC-FEDC5B48EEB4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="19416" activeTab="5" xr2:uid="{C5E28EE9-F232-4F07-B7EC-FEDC5B48EEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="API-Sheet" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="260">
   <si>
     <t>명세서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3614,6 +3614,10 @@
       <t>."
 }</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from post where postIdx = ?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3861,13 +3865,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4187,7 +4191,7 @@
   <dimension ref="A3:I181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -5809,428 +5813,428 @@
     <row r="35" spans="1:19" ht="17.399999999999999" customHeight="1">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="30" t="s">
+      <c r="J35" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="31"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31"/>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="30"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="31"/>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="31"/>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="9"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="9"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="30"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="31"/>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="9"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="9"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="31"/>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="31"/>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="30"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="9"/>
@@ -6244,16 +6248,16 @@
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="30"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="9"/>
@@ -6269,16 +6273,16 @@
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="9"/>
@@ -6294,16 +6298,16 @@
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="30"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="9"/>
@@ -6319,16 +6323,16 @@
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="30"/>
-      <c r="S59" s="30"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="31"/>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="9"/>
@@ -6344,16 +6348,16 @@
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="30"/>
-      <c r="R60" s="30"/>
-      <c r="S60" s="30"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="31"/>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="9"/>
@@ -6369,16 +6373,16 @@
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="30"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="30"/>
-      <c r="R61" s="30"/>
-      <c r="S61" s="30"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="31"/>
+      <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="9"/>
@@ -7285,428 +7289,428 @@
     <row r="32" spans="1:19" ht="17.399999999999999" customHeight="1">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="30" t="s">
+      <c r="J32" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="31"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31"/>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="9"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="30"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="31"/>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="9"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="9"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="31"/>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="9"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="30"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="31"/>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="31"/>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="9"/>
@@ -7720,16 +7724,16 @@
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="31"/>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="9"/>
@@ -7745,16 +7749,16 @@
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="9"/>
@@ -7770,16 +7774,16 @@
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="30"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="9"/>
@@ -7795,16 +7799,16 @@
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="30"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="9"/>
@@ -7820,16 +7824,16 @@
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="9"/>
@@ -7845,16 +7849,16 @@
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="30"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="9"/>
@@ -8060,8 +8064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01429B88-D7BE-4ECC-A887-13747EC43738}">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -8767,428 +8771,428 @@
     <row r="32" spans="1:19" ht="17.399999999999999" customHeight="1">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
+      <c r="J32" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="31"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31"/>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="9"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="30"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="31"/>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="9"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="9"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="31"/>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="9"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="30"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="31"/>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="31"/>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="9"/>
@@ -9202,16 +9206,16 @@
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="31"/>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="9"/>
@@ -9227,16 +9231,16 @@
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="9"/>
@@ -9252,16 +9256,16 @@
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="30"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="9"/>
@@ -9277,16 +9281,16 @@
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="30"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="9"/>
@@ -9302,16 +9306,16 @@
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="9"/>
@@ -9327,16 +9331,16 @@
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="30"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="9"/>
@@ -9535,6 +9539,7 @@
     <hyperlink ref="C1" location="gid=1134387694" display="gid=1134387694" xr:uid="{917A89F4-84ED-4797-B9C4-005DF4019A79}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9542,7 +9547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A49E2F-7B45-4A92-94E9-BB850CA117A8}">
   <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
@@ -10333,21 +10338,21 @@
     <row r="35" spans="1:16">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="30" t="s">
+      <c r="J35" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
@@ -10355,17 +10360,17 @@
     <row r="36" spans="1:16">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
@@ -10373,17 +10378,17 @@
     <row r="37" spans="1:16">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
@@ -10391,17 +10396,17 @@
     <row r="38" spans="1:16">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
@@ -10409,17 +10414,17 @@
     <row r="39" spans="1:16">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
@@ -10427,17 +10432,17 @@
     <row r="40" spans="1:16">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
@@ -10445,17 +10450,17 @@
     <row r="41" spans="1:16">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
@@ -10463,17 +10468,17 @@
     <row r="42" spans="1:16">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
@@ -10481,17 +10486,17 @@
     <row r="43" spans="1:16">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
@@ -10499,10 +10504,10 @@
     <row r="44" spans="1:16">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
@@ -10517,10 +10522,10 @@
     <row r="45" spans="1:16">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
@@ -10535,10 +10540,10 @@
     <row r="46" spans="1:16">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -10553,10 +10558,10 @@
     <row r="47" spans="1:16">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
@@ -11012,8 +11017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4939B2DE-FD55-4D7F-9471-BF1A0F8F4EC1}">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H24:H34"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -12028,280 +12033,280 @@
     <row r="43" spans="1:16" ht="17.399999999999999" customHeight="1">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="30" t="s">
+      <c r="J43" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
     </row>
     <row r="57" spans="1:16">
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
     </row>
     <row r="58" spans="1:16">
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
@@ -12707,7 +12712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329A0F0A-9BA1-4DB4-A2DF-607FD7349CAD}">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -13534,21 +13539,21 @@
     <row r="36" spans="1:16">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="30" t="s">
+      <c r="J36" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
@@ -13556,17 +13561,17 @@
     <row r="37" spans="1:16">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
@@ -13574,17 +13579,17 @@
     <row r="38" spans="1:16">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
@@ -13592,17 +13597,17 @@
     <row r="39" spans="1:16">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
@@ -13610,17 +13615,17 @@
     <row r="40" spans="1:16">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
@@ -13628,17 +13633,17 @@
     <row r="41" spans="1:16">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
@@ -13646,17 +13651,17 @@
     <row r="42" spans="1:16">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
@@ -13664,17 +13669,17 @@
     <row r="43" spans="1:16">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
@@ -13682,17 +13687,17 @@
     <row r="44" spans="1:16">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
@@ -13700,10 +13705,10 @@
     <row r="45" spans="1:16">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
@@ -13718,10 +13723,10 @@
     <row r="46" spans="1:16">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -13736,10 +13741,10 @@
     <row r="47" spans="1:16">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
@@ -13754,10 +13759,10 @@
     <row r="48" spans="1:16">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -14213,7 +14218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6DF249-BBFC-4E85-8435-72CDA3B791B2}">
   <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -15004,21 +15009,21 @@
     <row r="35" spans="1:16">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="30" t="s">
+      <c r="J35" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
@@ -15026,17 +15031,17 @@
     <row r="36" spans="1:16">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
@@ -15044,17 +15049,17 @@
     <row r="37" spans="1:16">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
@@ -15062,17 +15067,17 @@
     <row r="38" spans="1:16">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
@@ -15080,17 +15085,17 @@
     <row r="39" spans="1:16">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
@@ -15098,17 +15103,17 @@
     <row r="40" spans="1:16">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
@@ -15116,17 +15121,17 @@
     <row r="41" spans="1:16">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
@@ -15134,17 +15139,17 @@
     <row r="42" spans="1:16">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
@@ -15152,17 +15157,17 @@
     <row r="43" spans="1:16">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
@@ -15170,10 +15175,10 @@
     <row r="44" spans="1:16">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
@@ -15188,10 +15193,10 @@
     <row r="45" spans="1:16">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
@@ -15206,10 +15211,10 @@
     <row r="46" spans="1:16">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -15224,10 +15229,10 @@
     <row r="47" spans="1:16">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
@@ -15683,8 +15688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299004CC-4DF0-4F07-BA8E-9E5686E24C8B}">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -16481,21 +16486,21 @@
     <row r="36" spans="1:16">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="30" t="s">
+      <c r="J36" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
@@ -16503,17 +16508,17 @@
     <row r="37" spans="1:16">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
@@ -16521,17 +16526,17 @@
     <row r="38" spans="1:16">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
@@ -16539,17 +16544,17 @@
     <row r="39" spans="1:16">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
@@ -16557,17 +16562,17 @@
     <row r="40" spans="1:16">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
@@ -16575,17 +16580,17 @@
     <row r="41" spans="1:16">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
@@ -16593,17 +16598,17 @@
     <row r="42" spans="1:16">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
@@ -16611,17 +16616,17 @@
     <row r="43" spans="1:16">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
@@ -16629,17 +16634,17 @@
     <row r="44" spans="1:16">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
@@ -16647,10 +16652,10 @@
     <row r="45" spans="1:16">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
@@ -16665,10 +16670,10 @@
     <row r="46" spans="1:16">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -16683,10 +16688,10 @@
     <row r="47" spans="1:16">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
@@ -16701,10 +16706,10 @@
     <row r="48" spans="1:16">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -17160,7 +17165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E491A7-87BC-45F4-AF54-46E292B8E974}">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C48" sqref="C48:F60"/>
     </sheetView>
   </sheetViews>
@@ -18306,279 +18311,279 @@
     <row r="48" spans="1:19" ht="17.399999999999999" customHeight="1">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
-      <c r="J48" s="30" t="s">
+      <c r="J48" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="31"/>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="30"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="31"/>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="31"/>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="31"/>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="30"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="30"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="30"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="30"/>
-      <c r="S59" s="30"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="31"/>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="30"/>
-      <c r="R60" s="30"/>
-      <c r="S60" s="30"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="31"/>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="9"/>
@@ -18590,128 +18595,128 @@
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="30"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="30"/>
-      <c r="R61" s="30"/>
-      <c r="S61" s="30"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="31"/>
+      <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="9"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="30"/>
-      <c r="N62" s="30"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="30"/>
-      <c r="R62" s="30"/>
-      <c r="S62" s="30"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="31"/>
+      <c r="S62" s="31"/>
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="9"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="30"/>
-      <c r="S63" s="30"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="31"/>
+      <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:19">
       <c r="A64" s="9"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="31"/>
     </row>
     <row r="65" spans="1:19">
       <c r="A65" s="9"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="30"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="30"/>
-      <c r="R65" s="30"/>
-      <c r="S65" s="30"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="31"/>
+      <c r="R65" s="31"/>
+      <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="9"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
-      <c r="N66" s="30"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="30"/>
-      <c r="S66" s="30"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="31"/>
+      <c r="R66" s="31"/>
+      <c r="S66" s="31"/>
     </row>
     <row r="67" spans="1:19">
       <c r="A67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="30"/>
-      <c r="S67" s="30"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="31"/>
+      <c r="R67" s="31"/>
+      <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19">
       <c r="A68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="30"/>
-      <c r="N68" s="30"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="30"/>
-      <c r="Q68" s="30"/>
-      <c r="R68" s="30"/>
-      <c r="S68" s="30"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="31"/>
+      <c r="M68" s="31"/>
+      <c r="N68" s="31"/>
+      <c r="O68" s="31"/>
+      <c r="P68" s="31"/>
+      <c r="Q68" s="31"/>
+      <c r="R68" s="31"/>
+      <c r="S68" s="31"/>
     </row>
     <row r="69" spans="1:19">
       <c r="A69" s="9"/>
@@ -18725,16 +18730,16 @@
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="30"/>
-      <c r="N69" s="30"/>
-      <c r="O69" s="30"/>
-      <c r="P69" s="30"/>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="30"/>
-      <c r="S69" s="30"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="31"/>
+      <c r="L69" s="31"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="31"/>
+      <c r="O69" s="31"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="31"/>
+      <c r="R69" s="31"/>
+      <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19">
       <c r="A70" s="9"/>
@@ -18750,16 +18755,16 @@
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="30"/>
-      <c r="M70" s="30"/>
-      <c r="N70" s="30"/>
-      <c r="O70" s="30"/>
-      <c r="P70" s="30"/>
-      <c r="Q70" s="30"/>
-      <c r="R70" s="30"/>
-      <c r="S70" s="30"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="31"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="31"/>
+      <c r="O70" s="31"/>
+      <c r="P70" s="31"/>
+      <c r="Q70" s="31"/>
+      <c r="R70" s="31"/>
+      <c r="S70" s="31"/>
     </row>
     <row r="71" spans="1:19">
       <c r="A71" s="9"/>
@@ -19053,7 +19058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42AD734-EFBA-4FDA-8DC4-1E4B809DBA1C}">
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
@@ -20053,428 +20058,428 @@
     <row r="43" spans="1:19" ht="17.399999999999999" customHeight="1">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="30" t="s">
+      <c r="J43" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="31"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31"/>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="30"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="31"/>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="31"/>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="30"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="31"/>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="31"/>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="31"/>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="30"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="30"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="9"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="9"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="30"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="9"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="30"/>
-      <c r="S59" s="30"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="31"/>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="9"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="30"/>
-      <c r="R60" s="30"/>
-      <c r="S60" s="30"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="31"/>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="9"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="30"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="30"/>
-      <c r="R61" s="30"/>
-      <c r="S61" s="30"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="31"/>
+      <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="9"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="30"/>
-      <c r="N62" s="30"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="30"/>
-      <c r="R62" s="30"/>
-      <c r="S62" s="30"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="31"/>
+      <c r="S62" s="31"/>
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="9"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="30"/>
-      <c r="S63" s="30"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="31"/>
+      <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:19">
       <c r="A64" s="9"/>
@@ -20488,16 +20493,16 @@
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="31"/>
     </row>
     <row r="65" spans="1:19">
       <c r="A65" s="9"/>
@@ -20513,16 +20518,16 @@
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="30"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="30"/>
-      <c r="R65" s="30"/>
-      <c r="S65" s="30"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="31"/>
+      <c r="R65" s="31"/>
+      <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="9"/>
@@ -20538,16 +20543,16 @@
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
-      <c r="N66" s="30"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="30"/>
-      <c r="S66" s="30"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="31"/>
+      <c r="R66" s="31"/>
+      <c r="S66" s="31"/>
     </row>
     <row r="67" spans="1:19">
       <c r="A67" s="9"/>
@@ -20563,16 +20568,16 @@
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="30"/>
-      <c r="S67" s="30"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="31"/>
+      <c r="R67" s="31"/>
+      <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19">
       <c r="A68" s="9"/>
@@ -20588,16 +20593,16 @@
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="30"/>
-      <c r="N68" s="30"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="30"/>
-      <c r="Q68" s="30"/>
-      <c r="R68" s="30"/>
-      <c r="S68" s="30"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="31"/>
+      <c r="M68" s="31"/>
+      <c r="N68" s="31"/>
+      <c r="O68" s="31"/>
+      <c r="P68" s="31"/>
+      <c r="Q68" s="31"/>
+      <c r="R68" s="31"/>
+      <c r="S68" s="31"/>
     </row>
     <row r="69" spans="1:19">
       <c r="A69" s="9"/>
@@ -20613,16 +20618,16 @@
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="30"/>
-      <c r="N69" s="30"/>
-      <c r="O69" s="30"/>
-      <c r="P69" s="30"/>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="30"/>
-      <c r="S69" s="30"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="31"/>
+      <c r="L69" s="31"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="31"/>
+      <c r="O69" s="31"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="31"/>
+      <c r="R69" s="31"/>
+      <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19">
       <c r="A70" s="9"/>
@@ -20828,7 +20833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD67E3C-5188-4B40-816D-E275B44E7FDE}">
   <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -21029,7 +21034,7 @@
       <c r="E9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="29" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -21593,428 +21598,428 @@
     <row r="34" spans="1:19" ht="17.399999999999999" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="30" t="s">
+      <c r="J34" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="31"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31"/>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="30"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="31"/>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="9"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="31"/>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="9"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="9"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="30"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="31"/>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="9"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="31"/>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="31"/>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="9"/>
@@ -22028,16 +22033,16 @@
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="30"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="9"/>
@@ -22053,16 +22058,16 @@
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="30"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="9"/>
@@ -22078,16 +22083,16 @@
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="9"/>
@@ -22103,16 +22108,16 @@
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="30"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="9"/>
@@ -22128,16 +22133,16 @@
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="30"/>
-      <c r="S59" s="30"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="31"/>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="9"/>
@@ -22153,16 +22158,16 @@
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="30"/>
-      <c r="R60" s="30"/>
-      <c r="S60" s="30"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="31"/>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="9"/>
